--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson.espadoni\Documents\Projetos\Summa-Tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson.espadoni\Documents\GitHub\Devs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>1.Create org with username boltdemo-xyz@summa-tech.com  where xyz is your initials.</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>13. Create  a community using the Napili Template</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B17" sqref="B17:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,30 +548,48 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -95,7 +95,7 @@
     <t>13. Create  a community using the Napili Template</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Yes_OK</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
